--- a/STAT_ASSIGMENT.xlsx
+++ b/STAT_ASSIGMENT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\STAT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A152CF2-CB62-45B6-A602-63DCC2B11580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4FB3331-9BA2-45A5-80F1-FEBB63832DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="5" xr2:uid="{D8252378-AFA5-4636-92CE-026A45AC12B6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="2" xr2:uid="{D8252378-AFA5-4636-92CE-026A45AC12B6}"/>
   </bookViews>
   <sheets>
     <sheet name="measure of central tendency" sheetId="1" r:id="rId1"/>
@@ -21,18 +21,18 @@
     <sheet name="skewness or kurtosis" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'statestic que'!$B$257:$B$262</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'statestic que'!$C$256</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'statestic que'!$C$154</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'statestic que'!$C$155:$C$163</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'statestic que'!$C$257:$C$262</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'statestic que'!$B$319:$B$325</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'statestic que'!$C$318</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'statestic que'!$C$319:$C$325</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'statestic que'!$B$194:$B$197</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'statestic que'!$C$193</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'statestic que'!$C$194:$C$197</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'statestic que'!$B$155:$B$163</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'statestic que'!$B$319:$B$325</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'statestic que'!$C$318</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'statestic que'!$C$193</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'statestic que'!$C$194:$C$197</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'statestic que'!$C$319:$C$325</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'statestic que'!$B$257:$B$262</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'statestic que'!$C$256</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'statestic que'!$C$257:$C$262</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'statestic que'!$B$155:$B$163</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'statestic que'!$C$154</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'statestic que'!$C$155:$C$163</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'statestic que'!$B$194:$B$197</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="293">
   <si>
     <t>week 1</t>
   </si>
@@ -892,6 +892,78 @@
   </si>
   <si>
     <t>interpretation</t>
+  </si>
+  <si>
+    <t>The median weight (Q2) is 267.5, indicating that 50% of the individuals weigh less than this amount and 50% weigh more.</t>
+  </si>
+  <si>
+    <t>The first quartile (Q1) is 143.75, meaning that 25% of the individuals weigh less than this amount.</t>
+  </si>
+  <si>
+    <t>The third quartile (Q3) is 391.25, suggesting that 75% of the individuals weigh less than this amount.</t>
+  </si>
+  <si>
+    <t>The 15th percentile weight is 94.55, implying that 15% of the individuals weigh less than this amount.</t>
+  </si>
+  <si>
+    <t>The 85th percentile weight is 440.75, indicating that 85% of the individuals weigh less than this amount.</t>
+  </si>
+  <si>
+    <t>The median spending (Q2) is 292.5, indicating that 50% of the customers spend less than this amount and 50% spend more.</t>
+  </si>
+  <si>
+    <t>The first quartile (Q1) is 156.25, meaning that 25% of the customers spend less than this amount.</t>
+  </si>
+  <si>
+    <t>The third quartile (Q3) is 428.75, suggesting that 75% of the customers spend less than this amount.</t>
+  </si>
+  <si>
+    <t>The 20th percentile spending is 129, implying that 20% of the customers spend less than this amount.</t>
+  </si>
+  <si>
+    <t>The 40th percentile spending is 238, indicating that 40% of the customers spend less than this amount.</t>
+  </si>
+  <si>
+    <t>The 80th percentile spending is 456, indicating that 80% of the customers spend less than this amount.</t>
+  </si>
+  <si>
+    <t>The median quality score (Q2) is 0.7, indicating that 50% of the products have a quality score less than this amount, and 50% have a higher quality score.</t>
+  </si>
+  <si>
+    <t>The first quartile (Q1) is 0.4, meaning that 25% of the products have a quality score less than this amount.</t>
+  </si>
+  <si>
+    <t>The third quartile (Q3) is 0.9, suggesting that 75% of the products have a quality score less than this amount.</t>
+  </si>
+  <si>
+    <t>The 25th percentile quality score is 0.4, implying that 25% of the products have a quality score less than this amount.</t>
+  </si>
+  <si>
+    <t>The 50th percentile quality score is 0.7 (median), indicating that 50% of the products have a quality score less than this amount.</t>
+  </si>
+  <si>
+    <t>The 75th percentile quality score is 0.9, indicating that 75% of the products have a quality score less than this amount.</t>
+  </si>
+  <si>
+    <t>The first quartile (Q1) is 138.75, meaning that 25% of the employees have a commute time less than this amount.</t>
+  </si>
+  <si>
+    <t>The third quartile (Q3) is 486.25, suggesting that 75% of the employees have a commute time less than this amount.</t>
+  </si>
+  <si>
+    <t>The median commute time (Q2) is 362.5, indicating that 50% of the employees have a commute time less than this amount, and 50% have a longer commute time.</t>
+  </si>
+  <si>
+    <t>The 30th percentile commute time is 163.5 implying that 30% of the employees have a commute time less than this amount.</t>
+  </si>
+  <si>
+    <t>The 50th percentile commute time is 362.5, indicating that 50% of the employees have a commute time less than this amount.</t>
+  </si>
+  <si>
+    <t>The 70th percentile commute time is 461.5 indicating that 70% of the employees have a commute time less than this amount.</t>
+  </si>
+  <si>
+    <t>A correlation coefficient of 0.977295083 is close to 1, which suggests a very strong positive correlation between the time spent studying and the exam score.</t>
   </si>
 </sst>
 </file>
@@ -1020,7 +1092,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1047,8 +1119,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2790,10 +2865,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2831,7 +2906,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{D286E89E-6701-47C5-99A3-A2CB9D5E26BB}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>Frequency</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2869,10 +2944,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.11</cx:f>
+        <cx:f>_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2910,7 +2985,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{0AE5C230-96F3-44DB-82B4-DE49D5F8C2BC}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.10</cx:f>
+              <cx:f>_xlchart.v1.7</cx:f>
               <cx:v>Frequency</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2948,10 +3023,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.6</cx:f>
+        <cx:f>_xlchart.v1.9</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.8</cx:f>
+        <cx:f>_xlchart.v1.11</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2961,7 +3036,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{E6B8BE70-B521-49CB-B048-2F8BFB55CBDC}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.7</cx:f>
+              <cx:f>_xlchart.v1.10</cx:f>
               <cx:v>Frequency</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2999,10 +3074,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3012,7 +3087,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{A3E90353-2BED-4AE5-A9A1-D7925CEB5AB1}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:f>_xlchart.v1.4</cx:f>
               <cx:v>Frequency</cx:v>
             </cx:txData>
           </cx:tx>
@@ -8000,7 +8075,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3985260" y="57896760"/>
+              <a:off x="3985260" y="57713880"/>
               <a:ext cx="4312920" cy="2362200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -8078,7 +8153,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4000500" y="28011120"/>
+              <a:off x="4000500" y="27828240"/>
               <a:ext cx="4389120" cy="2491740"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -8156,7 +8231,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3954780" y="34891980"/>
+              <a:off x="3954780" y="34709100"/>
               <a:ext cx="4518660" cy="2430780"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -8270,7 +8345,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3779520" y="46474380"/>
+              <a:off x="3779520" y="46291500"/>
               <a:ext cx="4579620" cy="2263140"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -9128,7 +9203,7 @@
   <dimension ref="A1:M593"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+      <selection activeCell="M403" sqref="M403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10125,82 +10200,97 @@
         <v>145</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="8">
         <v>150</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="8">
         <v>155</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D162" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="8">
         <v>160</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="8">
         <v>165</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D164" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="8">
         <v>170</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="8">
         <v>175</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D166" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="8">
         <v>180</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="8">
         <v>185</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D168" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="8">
         <v>190</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="8">
         <v>195</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D170" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="8">
         <v>200</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="8">
         <v>205</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="8">
         <v>210</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="8">
         <v>215</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="8">
         <v>220</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="8">
         <v>225</v>
       </c>
@@ -10792,83 +10882,101 @@
       <c r="A272" s="8">
         <v>150</v>
       </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E272" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" s="8">
         <v>155</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" s="8">
         <v>160</v>
       </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E274" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" s="8">
         <v>165</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" s="8">
         <v>170</v>
       </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E276" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" s="8">
         <v>175</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" s="8">
         <v>180</v>
       </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E278" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" s="8">
         <v>185</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" s="8">
         <v>190</v>
       </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E280" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" s="8">
         <v>195</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" s="8">
         <v>200</v>
       </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E282" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" s="8">
         <v>205</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" s="8">
         <v>210</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" s="8">
         <v>215</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" s="8">
         <v>220</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" s="8">
         <v>225</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" s="8">
         <v>230</v>
       </c>
@@ -11478,6 +11586,9 @@
       <c r="A390" s="8">
         <v>135</v>
       </c>
+      <c r="E390" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="391" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A391" s="8">
@@ -11488,6 +11599,9 @@
       <c r="A392" s="8">
         <v>145</v>
       </c>
+      <c r="E392" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="393" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A393" s="8">
@@ -11498,6 +11612,9 @@
       <c r="A394" s="8">
         <v>155</v>
       </c>
+      <c r="E394" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="395" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A395" s="8">
@@ -11508,6 +11625,9 @@
       <c r="A396" s="8">
         <v>165</v>
       </c>
+      <c r="E396" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="397" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A397" s="8">
@@ -11518,6 +11638,9 @@
       <c r="A398" s="8">
         <v>175</v>
       </c>
+      <c r="E398" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="399" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A399" s="8">
@@ -11527,6 +11650,9 @@
     <row r="400" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A400" s="8">
         <v>185</v>
+      </c>
+      <c r="E400" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.3">
@@ -12106,82 +12232,100 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A497" s="9">
         <v>0.5</v>
       </c>
     </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A498" s="9">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C498" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A499" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A500" s="9">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C500" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A501" s="9">
         <v>0.3</v>
       </c>
     </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A502" s="9">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C502" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A503" s="9">
         <v>0.4</v>
       </c>
     </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A504" s="9">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C504" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A505" s="9">
         <v>0.9</v>
       </c>
     </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A506" s="9">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C506" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A507" s="9">
         <v>0.8</v>
       </c>
     </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A508" s="9">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C508" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A509" s="9">
         <v>0.6</v>
       </c>
     </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A510" s="9">
         <v>0.5</v>
       </c>
     </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A511" s="9">
         <v>0.4</v>
       </c>
     </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A512" s="9">
         <v>0.7</v>
       </c>
@@ -12596,6 +12740,19 @@
     <sortCondition ref="C483:C486"/>
   </sortState>
   <mergeCells count="21">
+    <mergeCell ref="A124:F126"/>
+    <mergeCell ref="A128:F130"/>
+    <mergeCell ref="D134:I136"/>
+    <mergeCell ref="A1:F3"/>
+    <mergeCell ref="A5:F6"/>
+    <mergeCell ref="F9:M10"/>
+    <mergeCell ref="F18:K20"/>
+    <mergeCell ref="E30:J32"/>
+    <mergeCell ref="D143:I146"/>
+    <mergeCell ref="A238:F242"/>
+    <mergeCell ref="D155:I159"/>
+    <mergeCell ref="E246:J249"/>
+    <mergeCell ref="E256:J259"/>
     <mergeCell ref="C483:G486"/>
     <mergeCell ref="C492:G495"/>
     <mergeCell ref="C474:G477"/>
@@ -12604,19 +12761,6 @@
     <mergeCell ref="E365:I368"/>
     <mergeCell ref="E376:I378"/>
     <mergeCell ref="E385:I388"/>
-    <mergeCell ref="D143:I146"/>
-    <mergeCell ref="A238:F242"/>
-    <mergeCell ref="D155:I159"/>
-    <mergeCell ref="E246:J249"/>
-    <mergeCell ref="E256:J259"/>
-    <mergeCell ref="A124:F126"/>
-    <mergeCell ref="A128:F130"/>
-    <mergeCell ref="D134:I136"/>
-    <mergeCell ref="A1:F3"/>
-    <mergeCell ref="A5:F6"/>
-    <mergeCell ref="F9:M10"/>
-    <mergeCell ref="F18:K20"/>
-    <mergeCell ref="E30:J32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12626,8 +12770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52470D5C-0236-4921-9FA5-2F1BB0AF4D33}">
   <dimension ref="A1:U113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H101" sqref="H101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13187,17 +13331,17 @@
       <c r="L80" s="1"/>
       <c r="M80" s="1"/>
     </row>
-    <row r="83" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="18" t="s">
+    <row r="83" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="20" t="s">
         <v>255</v>
       </c>
-      <c r="B83" s="18"/>
-      <c r="C83" s="18" t="s">
+      <c r="B83" s="20"/>
+      <c r="C83" s="20" t="s">
         <v>256</v>
       </c>
-      <c r="D83" s="18"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D83" s="20"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="8">
         <v>10</v>
       </c>
@@ -13215,7 +13359,7 @@
       </c>
       <c r="J84" s="4"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="8">
         <v>12</v>
       </c>
@@ -13230,7 +13374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="8">
         <v>15</v>
       </c>
@@ -13242,7 +13386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="8">
         <v>18</v>
       </c>
@@ -13260,7 +13404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="8">
         <v>20</v>
       </c>
@@ -13276,7 +13420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="8">
         <v>22</v>
       </c>
@@ -13285,7 +13429,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="8">
         <v>25</v>
       </c>
@@ -13294,7 +13438,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="8">
         <v>28</v>
       </c>
@@ -13302,8 +13446,16 @@
       <c r="C91" s="8">
         <v>88</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F91" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="G91" s="19"/>
+      <c r="H91" s="19"/>
+      <c r="I91" s="19"/>
+      <c r="J91" s="19"/>
+      <c r="K91" s="19"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="8">
         <v>30</v>
       </c>
@@ -13311,8 +13463,14 @@
       <c r="C92" s="8">
         <v>90</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F92" s="19"/>
+      <c r="G92" s="19"/>
+      <c r="H92" s="19"/>
+      <c r="I92" s="19"/>
+      <c r="J92" s="19"/>
+      <c r="K92" s="19"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="8">
         <v>32</v>
       </c>
@@ -13320,8 +13478,14 @@
       <c r="C93" s="8">
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F93" s="19"/>
+      <c r="G93" s="19"/>
+      <c r="H93" s="19"/>
+      <c r="I93" s="19"/>
+      <c r="J93" s="19"/>
+      <c r="K93" s="19"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="8">
         <v>35</v>
       </c>
@@ -13329,8 +13493,14 @@
       <c r="C94" s="8">
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F94" s="19"/>
+      <c r="G94" s="19"/>
+      <c r="H94" s="19"/>
+      <c r="I94" s="19"/>
+      <c r="J94" s="19"/>
+      <c r="K94" s="19"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="8">
         <v>38</v>
       </c>
@@ -13338,8 +13508,14 @@
       <c r="C95" s="8">
         <v>95</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F95" s="19"/>
+      <c r="G95" s="19"/>
+      <c r="H95" s="19"/>
+      <c r="I95" s="19"/>
+      <c r="J95" s="19"/>
+      <c r="K95" s="19"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="8">
         <v>40</v>
       </c>
@@ -13347,6 +13523,12 @@
       <c r="C96" s="8">
         <v>96</v>
       </c>
+      <c r="F96" s="19"/>
+      <c r="G96" s="19"/>
+      <c r="H96" s="19"/>
+      <c r="I96" s="19"/>
+      <c r="J96" s="19"/>
+      <c r="K96" s="19"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="8">
@@ -13502,7 +13684,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="F91:K96"/>
     <mergeCell ref="A50:F53"/>
     <mergeCell ref="A1:G4"/>
     <mergeCell ref="A7:G10"/>
@@ -13518,7 +13701,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63F1B4E7-0C8E-4DD5-AFC8-207FFEEDD74E}">
   <dimension ref="A1:L198"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A215" workbookViewId="0">
       <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
@@ -13647,17 +13830,17 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
@@ -15132,11 +15315,17 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A68:G68"/>
-    <mergeCell ref="A72:E72"/>
-    <mergeCell ref="A76:E76"/>
-    <mergeCell ref="A90:I90"/>
-    <mergeCell ref="A97:I97"/>
+    <mergeCell ref="A189:H189"/>
+    <mergeCell ref="A195:H195"/>
+    <mergeCell ref="A157:I157"/>
+    <mergeCell ref="A162:I162"/>
+    <mergeCell ref="B174:G174"/>
+    <mergeCell ref="A184:H184"/>
+    <mergeCell ref="B108:H108"/>
+    <mergeCell ref="A117:G117"/>
+    <mergeCell ref="A124:G124"/>
+    <mergeCell ref="B137:H137"/>
+    <mergeCell ref="A152:I152"/>
     <mergeCell ref="B35:J35"/>
     <mergeCell ref="A42:F42"/>
     <mergeCell ref="A46:D46"/>
@@ -15146,17 +15335,11 @@
     <mergeCell ref="A21:H21"/>
     <mergeCell ref="A25:H25"/>
     <mergeCell ref="A32:G32"/>
-    <mergeCell ref="B108:H108"/>
-    <mergeCell ref="A117:G117"/>
-    <mergeCell ref="A124:G124"/>
-    <mergeCell ref="B137:H137"/>
-    <mergeCell ref="A152:I152"/>
-    <mergeCell ref="A189:H189"/>
-    <mergeCell ref="A195:H195"/>
-    <mergeCell ref="A157:I157"/>
-    <mergeCell ref="A162:I162"/>
-    <mergeCell ref="B174:G174"/>
-    <mergeCell ref="A184:H184"/>
+    <mergeCell ref="A68:G68"/>
+    <mergeCell ref="A72:E72"/>
+    <mergeCell ref="A76:E76"/>
+    <mergeCell ref="A90:I90"/>
+    <mergeCell ref="A97:I97"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15167,7 +15350,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EE6EFCB-7706-4132-81D1-43EB7C16A4E4}">
   <dimension ref="A1:M399"/>
   <sheetViews>
-    <sheetView topLeftCell="A378" workbookViewId="0">
+    <sheetView topLeftCell="A38" workbookViewId="0">
       <selection activeCell="C291" sqref="C291"/>
     </sheetView>
   </sheetViews>
@@ -16009,7 +16192,7 @@
       <c r="H101" s="17"/>
       <c r="I101" s="17"/>
     </row>
-    <row r="104" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>82</v>
       </c>
@@ -18048,12 +18231,14 @@
     <sortCondition ref="B345"/>
   </sortState>
   <mergeCells count="30">
-    <mergeCell ref="A213:H213"/>
-    <mergeCell ref="A123:H123"/>
-    <mergeCell ref="A143:H143"/>
-    <mergeCell ref="B145:F145"/>
-    <mergeCell ref="A149:G149"/>
-    <mergeCell ref="A174:F174"/>
+    <mergeCell ref="B359:I359"/>
+    <mergeCell ref="A366:G366"/>
+    <mergeCell ref="A386:H386"/>
+    <mergeCell ref="A394:G394"/>
+    <mergeCell ref="B298:I298"/>
+    <mergeCell ref="A313:J313"/>
+    <mergeCell ref="A331:G331"/>
+    <mergeCell ref="A337:H337"/>
     <mergeCell ref="B238:I238"/>
     <mergeCell ref="A250:J250"/>
     <mergeCell ref="A271:H271"/>
@@ -18070,14 +18255,12 @@
     <mergeCell ref="B116:M116"/>
     <mergeCell ref="A188:J188"/>
     <mergeCell ref="A208:G208"/>
-    <mergeCell ref="B359:I359"/>
-    <mergeCell ref="A366:G366"/>
-    <mergeCell ref="A386:H386"/>
-    <mergeCell ref="A394:G394"/>
-    <mergeCell ref="B298:I298"/>
-    <mergeCell ref="A313:J313"/>
-    <mergeCell ref="A331:G331"/>
-    <mergeCell ref="A337:H337"/>
+    <mergeCell ref="A213:H213"/>
+    <mergeCell ref="A123:H123"/>
+    <mergeCell ref="A143:H143"/>
+    <mergeCell ref="B145:F145"/>
+    <mergeCell ref="A149:G149"/>
+    <mergeCell ref="A174:F174"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -18088,7 +18271,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F9F4877-EEBA-4BDD-840F-36A9B92F5A30}">
   <dimension ref="A1:L180"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A176" workbookViewId="0">
       <selection activeCell="I159" sqref="I159"/>
     </sheetView>
   </sheetViews>
@@ -20117,22 +20300,12 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A180:G180"/>
-    <mergeCell ref="A149:G151"/>
-    <mergeCell ref="A153:F154"/>
-    <mergeCell ref="A169:G169"/>
-    <mergeCell ref="A173:G173"/>
-    <mergeCell ref="A177:G178"/>
-    <mergeCell ref="A117:E118"/>
-    <mergeCell ref="A133:H133"/>
-    <mergeCell ref="A137:G137"/>
-    <mergeCell ref="A141:F142"/>
-    <mergeCell ref="A144:K144"/>
-    <mergeCell ref="A99:F99"/>
-    <mergeCell ref="A103:F103"/>
-    <mergeCell ref="A107:F108"/>
-    <mergeCell ref="A110:G110"/>
-    <mergeCell ref="A114:F115"/>
+    <mergeCell ref="A28:H29"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:H4"/>
+    <mergeCell ref="A6:H7"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="A23:F23"/>
     <mergeCell ref="A71:G72"/>
     <mergeCell ref="A75:F75"/>
     <mergeCell ref="A79:G81"/>
@@ -20142,12 +20315,22 @@
     <mergeCell ref="A42:H43"/>
     <mergeCell ref="A60:G60"/>
     <mergeCell ref="A66:H66"/>
-    <mergeCell ref="A28:H29"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:H4"/>
-    <mergeCell ref="A6:H7"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A99:F99"/>
+    <mergeCell ref="A103:F103"/>
+    <mergeCell ref="A107:F108"/>
+    <mergeCell ref="A110:G110"/>
+    <mergeCell ref="A114:F115"/>
+    <mergeCell ref="A117:E118"/>
+    <mergeCell ref="A133:H133"/>
+    <mergeCell ref="A137:G137"/>
+    <mergeCell ref="A141:F142"/>
+    <mergeCell ref="A144:K144"/>
+    <mergeCell ref="A180:G180"/>
+    <mergeCell ref="A149:G151"/>
+    <mergeCell ref="A153:F154"/>
+    <mergeCell ref="A169:G169"/>
+    <mergeCell ref="A173:G173"/>
+    <mergeCell ref="A177:G178"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
